--- a/INTLINE/data/534/BSE/BSE Index - Daily.xlsx
+++ b/INTLINE/data/534/BSE/BSE Index - Daily.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:KPX3"/>
+  <dimension ref="A1:KQO3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39734,15 +39734,100 @@
       </c>
       <c r="KPV1" s="1" t="inlineStr">
         <is>
+          <t>2022-04-06</t>
+        </is>
+      </c>
+      <c r="KPW1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-07</t>
+        </is>
+      </c>
+      <c r="KPX1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-08</t>
+        </is>
+      </c>
+      <c r="KPY1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-11</t>
+        </is>
+      </c>
+      <c r="KPZ1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-12</t>
+        </is>
+      </c>
+      <c r="KQA1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-13</t>
+        </is>
+      </c>
+      <c r="KQB1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-18</t>
+        </is>
+      </c>
+      <c r="KQC1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-19</t>
+        </is>
+      </c>
+      <c r="KQD1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-20</t>
+        </is>
+      </c>
+      <c r="KQE1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-21</t>
+        </is>
+      </c>
+      <c r="KQF1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-22</t>
+        </is>
+      </c>
+      <c r="KQG1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-25</t>
+        </is>
+      </c>
+      <c r="KQH1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-26</t>
+        </is>
+      </c>
+      <c r="KQI1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-27</t>
+        </is>
+      </c>
+      <c r="KQJ1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-28</t>
+        </is>
+      </c>
+      <c r="KQK1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-29</t>
+        </is>
+      </c>
+      <c r="KQL1" s="1" t="inlineStr">
+        <is>
+          <t>2022-05-02</t>
+        </is>
+      </c>
+      <c r="KQM1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="KPW1" s="1" t="inlineStr">
+      <c r="KQN1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="KPX1" s="1" t="inlineStr">
+      <c r="KQO1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -62490,17 +62575,68 @@
       <c r="KPU2" t="n">
         <v>18288.83</v>
       </c>
-      <c r="KPV2" t="inlineStr">
+      <c r="KPV2" t="n">
+        <v>18178.2</v>
+      </c>
+      <c r="KPW2" t="n">
+        <v>18015.69</v>
+      </c>
+      <c r="KPX2" t="n">
+        <v>18195.18</v>
+      </c>
+      <c r="KPY2" t="n">
+        <v>18158.06</v>
+      </c>
+      <c r="KPZ2" t="n">
+        <v>17989.53</v>
+      </c>
+      <c r="KQA2" t="n">
+        <v>17951.3</v>
+      </c>
+      <c r="KQB2" t="n">
+        <v>17681.47</v>
+      </c>
+      <c r="KQC2" t="n">
+        <v>17442.95</v>
+      </c>
+      <c r="KQD2" t="n">
+        <v>17614.82</v>
+      </c>
+      <c r="KQE2" t="n">
+        <v>17864.45</v>
+      </c>
+      <c r="KQF2" t="n">
+        <v>17652.38</v>
+      </c>
+      <c r="KQG2" t="n">
+        <v>17414.89</v>
+      </c>
+      <c r="KQH2" t="n">
+        <v>17703.61</v>
+      </c>
+      <c r="KQI2" t="n">
+        <v>17521.05</v>
+      </c>
+      <c r="KQJ2" t="n">
+        <v>17740.84</v>
+      </c>
+      <c r="KQK2" t="n">
+        <v>17574.51</v>
+      </c>
+      <c r="KQL2" t="n">
+        <v>17537.73</v>
+      </c>
+      <c r="KQM2" t="inlineStr">
         <is>
           <t>BSE100</t>
         </is>
       </c>
-      <c r="KPW2" t="inlineStr">
+      <c r="KQN2" t="inlineStr">
         <is>
           <t>National Index, Close Price</t>
         </is>
       </c>
-      <c r="KPX2" t="inlineStr">
+      <c r="KQO2" t="inlineStr">
         <is>
           <t>Index: 1983.01.01=100</t>
         </is>
@@ -85016,17 +85152,68 @@
       <c r="KPU3" t="n">
         <v>60176.5</v>
       </c>
-      <c r="KPV3" t="inlineStr">
+      <c r="KPV3" t="n">
+        <v>59610.41</v>
+      </c>
+      <c r="KPW3" t="n">
+        <v>59034.95</v>
+      </c>
+      <c r="KPX3" t="n">
+        <v>59447.18</v>
+      </c>
+      <c r="KPY3" t="n">
+        <v>58964.57</v>
+      </c>
+      <c r="KPZ3" t="n">
+        <v>58576.37</v>
+      </c>
+      <c r="KQA3" t="n">
+        <v>58338.93</v>
+      </c>
+      <c r="KQB3" t="n">
+        <v>57166.74</v>
+      </c>
+      <c r="KQC3" t="n">
+        <v>56463.15</v>
+      </c>
+      <c r="KQD3" t="n">
+        <v>57037.5</v>
+      </c>
+      <c r="KQE3" t="n">
+        <v>57911.68</v>
+      </c>
+      <c r="KQF3" t="n">
+        <v>57197.15</v>
+      </c>
+      <c r="KQG3" t="n">
+        <v>56579.89</v>
+      </c>
+      <c r="KQH3" t="n">
+        <v>57356.61</v>
+      </c>
+      <c r="KQI3" t="n">
+        <v>56819.39</v>
+      </c>
+      <c r="KQJ3" t="n">
+        <v>57521.06</v>
+      </c>
+      <c r="KQK3" t="n">
+        <v>57060.87</v>
+      </c>
+      <c r="KQL3" t="n">
+        <v>56975.99</v>
+      </c>
+      <c r="KQM3" t="inlineStr">
         <is>
           <t>BSESN</t>
         </is>
       </c>
-      <c r="KPW3" t="inlineStr">
+      <c r="KQN3" t="inlineStr">
         <is>
           <t>Sensitive Index, Close Price</t>
         </is>
       </c>
-      <c r="KPX3" t="inlineStr">
+      <c r="KQO3" t="inlineStr">
         <is>
           <t>Index: 1978.01.01=100</t>
         </is>

--- a/INTLINE/data/534/BSE/BSE Index - Daily.xlsx
+++ b/INTLINE/data/534/BSE/BSE Index - Daily.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:KRY3"/>
+  <dimension ref="A1:KSB3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39999,15 +39999,30 @@
       </c>
       <c r="KRW1" s="1" t="inlineStr">
         <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+      <c r="KRX1" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-24</t>
+        </is>
+      </c>
+      <c r="KRY1" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-27</t>
+        </is>
+      </c>
+      <c r="KRZ1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="KRX1" s="1" t="inlineStr">
+      <c r="KSA1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="KRY1" s="1" t="inlineStr">
+      <c r="KSB1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -62912,19 +62927,28 @@
         <v>15897.82</v>
       </c>
       <c r="KRV2" t="n">
-        <v>15815.94</v>
-      </c>
-      <c r="KRW2" t="inlineStr">
+        <v>15658.68</v>
+      </c>
+      <c r="KRW2" t="n">
+        <v>15810.86</v>
+      </c>
+      <c r="KRX2" t="n">
+        <v>15963.31</v>
+      </c>
+      <c r="KRY2" t="n">
+        <v>16143.99</v>
+      </c>
+      <c r="KRZ2" t="inlineStr">
         <is>
           <t>BSE100</t>
         </is>
       </c>
-      <c r="KRX2" t="inlineStr">
+      <c r="KSA2" t="inlineStr">
         <is>
           <t>National Index, Close Price</t>
         </is>
       </c>
-      <c r="KRY2" t="inlineStr">
+      <c r="KSB2" t="inlineStr">
         <is>
           <t>Index: 1983.01.01=100</t>
         </is>
@@ -85597,19 +85621,28 @@
         <v>52532.07</v>
       </c>
       <c r="KRV3" t="n">
-        <v>52186.36</v>
-      </c>
-      <c r="KRW3" t="inlineStr">
+        <v>51822.53</v>
+      </c>
+      <c r="KRW3" t="n">
+        <v>52265.72</v>
+      </c>
+      <c r="KRX3" t="n">
+        <v>52727.98</v>
+      </c>
+      <c r="KRY3" t="n">
+        <v>53318.92</v>
+      </c>
+      <c r="KRZ3" t="inlineStr">
         <is>
           <t>BSESN</t>
         </is>
       </c>
-      <c r="KRX3" t="inlineStr">
+      <c r="KSA3" t="inlineStr">
         <is>
           <t>Sensitive Index, Close Price</t>
         </is>
       </c>
-      <c r="KRY3" t="inlineStr">
+      <c r="KSB3" t="inlineStr">
         <is>
           <t>Index: 1978.01.01=100</t>
         </is>
